--- a/Code/Results/Cases/Case_2_231/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_231/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9989808081897668</v>
+        <v>1.030763952664216</v>
       </c>
       <c r="D2">
-        <v>1.020072648200909</v>
+        <v>1.038882333672708</v>
       </c>
       <c r="E2">
-        <v>1.018627522699264</v>
+        <v>1.048491652779333</v>
       </c>
       <c r="F2">
-        <v>1.025003631382683</v>
+        <v>1.052714059346016</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042978614705734</v>
+        <v>1.032864540483332</v>
       </c>
       <c r="J2">
-        <v>1.021192045900352</v>
+        <v>1.035903398080549</v>
       </c>
       <c r="K2">
-        <v>1.031259246461671</v>
+        <v>1.041669102157293</v>
       </c>
       <c r="L2">
-        <v>1.029833305753038</v>
+        <v>1.051251348547466</v>
       </c>
       <c r="M2">
-        <v>1.036125278577805</v>
+        <v>1.0554620285946</v>
       </c>
       <c r="N2">
-        <v>1.022642255737894</v>
+        <v>1.037374499725604</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003369538656205</v>
+        <v>1.031697441858328</v>
       </c>
       <c r="D3">
-        <v>1.023284214606881</v>
+        <v>1.039587469067481</v>
       </c>
       <c r="E3">
-        <v>1.022630055365301</v>
+        <v>1.049423934783364</v>
       </c>
       <c r="F3">
-        <v>1.028999053933646</v>
+        <v>1.053629788691581</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043870930076042</v>
+        <v>1.032992033668823</v>
       </c>
       <c r="J3">
-        <v>1.02376876623233</v>
+        <v>1.036478560065953</v>
       </c>
       <c r="K3">
-        <v>1.033627591683825</v>
+        <v>1.04218461924586</v>
       </c>
       <c r="L3">
-        <v>1.032981342332171</v>
+        <v>1.051995375568136</v>
       </c>
       <c r="M3">
-        <v>1.039273859270987</v>
+        <v>1.056190394774439</v>
       </c>
       <c r="N3">
-        <v>1.025222635308298</v>
+        <v>1.037950478507</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006153089029749</v>
+        <v>1.032301953380738</v>
       </c>
       <c r="D4">
-        <v>1.025323724628902</v>
+        <v>1.040043999985463</v>
       </c>
       <c r="E4">
-        <v>1.025178147690037</v>
+        <v>1.050028405245716</v>
       </c>
       <c r="F4">
-        <v>1.031540165062556</v>
+        <v>1.05422325528672</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044426248836114</v>
+        <v>1.033073247534495</v>
       </c>
       <c r="J4">
-        <v>1.02540069712243</v>
+        <v>1.036850597200812</v>
       </c>
       <c r="K4">
-        <v>1.035125827679891</v>
+        <v>1.042517780656738</v>
       </c>
       <c r="L4">
-        <v>1.034981902589645</v>
+        <v>1.05247740363835</v>
       </c>
       <c r="M4">
-        <v>1.04127226626774</v>
+        <v>1.056661992261293</v>
       </c>
       <c r="N4">
-        <v>1.026856883727447</v>
+        <v>1.038323043977263</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007310289964273</v>
+        <v>1.032556204255269</v>
       </c>
       <c r="D5">
-        <v>1.026172166848194</v>
+        <v>1.040235986605266</v>
       </c>
       <c r="E5">
-        <v>1.026239694744588</v>
+        <v>1.050282815602648</v>
       </c>
       <c r="F5">
-        <v>1.032598213851448</v>
+        <v>1.054472969390784</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044654516711002</v>
+        <v>1.033107082185269</v>
       </c>
       <c r="J5">
-        <v>1.02607853848547</v>
+        <v>1.037006969194764</v>
       </c>
       <c r="K5">
-        <v>1.035747707494703</v>
+        <v>1.042657741814616</v>
       </c>
       <c r="L5">
-        <v>1.035814489971332</v>
+        <v>1.052680188892259</v>
       </c>
       <c r="M5">
-        <v>1.042103355400792</v>
+        <v>1.05686032136182</v>
       </c>
       <c r="N5">
-        <v>1.027535687702973</v>
+        <v>1.038479638037382</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00750383960521</v>
+        <v>1.032598900763562</v>
       </c>
       <c r="D6">
-        <v>1.026314105784686</v>
+        <v>1.040268225538178</v>
       </c>
       <c r="E6">
-        <v>1.026417375645668</v>
+        <v>1.050325549240513</v>
       </c>
       <c r="F6">
-        <v>1.032775274521747</v>
+        <v>1.0545149103879</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044692542337279</v>
+        <v>1.033112745114364</v>
       </c>
       <c r="J6">
-        <v>1.026191875847789</v>
+        <v>1.037033222809866</v>
       </c>
       <c r="K6">
-        <v>1.035851662157626</v>
+        <v>1.042681236018247</v>
       </c>
       <c r="L6">
-        <v>1.035953797369557</v>
+        <v>1.052714245639684</v>
       </c>
       <c r="M6">
-        <v>1.042242376648871</v>
+        <v>1.056893625728846</v>
       </c>
       <c r="N6">
-        <v>1.027649186017346</v>
+        <v>1.038505928935629</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006168602103205</v>
+        <v>1.032305350245844</v>
       </c>
       <c r="D7">
-        <v>1.025335096442912</v>
+        <v>1.040046565082188</v>
       </c>
       <c r="E7">
-        <v>1.025192369694846</v>
+        <v>1.050031803547899</v>
       </c>
       <c r="F7">
-        <v>1.031554342528724</v>
+        <v>1.054226591113334</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044429319225226</v>
+        <v>1.033073700844347</v>
       </c>
       <c r="J7">
-        <v>1.025409786460419</v>
+        <v>1.036852686779712</v>
       </c>
       <c r="K7">
-        <v>1.03513416833574</v>
+        <v>1.04251965121852</v>
       </c>
       <c r="L7">
-        <v>1.034993060504917</v>
+        <v>1.052480112713762</v>
       </c>
       <c r="M7">
-        <v>1.041283406484843</v>
+        <v>1.056664642072934</v>
       </c>
       <c r="N7">
-        <v>1.026865985973339</v>
+        <v>1.038325136523605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000475933548902</v>
+        <v>1.031079329350076</v>
       </c>
       <c r="D8">
-        <v>1.021166168781226</v>
+        <v>1.039120582501931</v>
       </c>
       <c r="E8">
-        <v>1.019989064414377</v>
+        <v>1.048806467994306</v>
       </c>
       <c r="F8">
-        <v>1.026363267189774</v>
+        <v>1.053023341197625</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043284805255835</v>
+        <v>1.032907892664203</v>
       </c>
       <c r="J8">
-        <v>1.022070338988577</v>
+        <v>1.036097803301305</v>
       </c>
       <c r="K8">
-        <v>1.032066864955412</v>
+        <v>1.041843408333976</v>
       </c>
       <c r="L8">
-        <v>1.03090491100302</v>
+        <v>1.051502672446171</v>
       </c>
       <c r="M8">
-        <v>1.037197590698111</v>
+        <v>1.055708121304672</v>
       </c>
       <c r="N8">
-        <v>1.023521796103048</v>
+        <v>1.037569181024072</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9899919114010092</v>
+        <v>1.028922659325426</v>
       </c>
       <c r="D9">
-        <v>1.013511653696395</v>
+        <v>1.037490949402998</v>
       </c>
       <c r="E9">
-        <v>1.010483895729634</v>
+        <v>1.04665669278526</v>
       </c>
       <c r="F9">
-        <v>1.01686109532585</v>
+        <v>1.050910239808253</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041094472946303</v>
+        <v>1.032605918108548</v>
       </c>
       <c r="J9">
-        <v>1.015903099360292</v>
+        <v>1.034766643112852</v>
       </c>
       <c r="K9">
-        <v>1.026389252476129</v>
+        <v>1.040648671170614</v>
       </c>
       <c r="L9">
-        <v>1.023409138584103</v>
+        <v>1.049784894501414</v>
       </c>
       <c r="M9">
-        <v>1.029686410515786</v>
+        <v>1.054024933501259</v>
       </c>
       <c r="N9">
-        <v>1.017345798287098</v>
+        <v>1.036236130435466</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.98266544281264</v>
+        <v>1.027487453040998</v>
       </c>
       <c r="D10">
-        <v>1.008182407809397</v>
+        <v>1.036406005697169</v>
       </c>
       <c r="E10">
-        <v>1.003897333248356</v>
+        <v>1.04522993313064</v>
       </c>
       <c r="F10">
-        <v>1.010263556978214</v>
+        <v>1.049506422781145</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039510823331568</v>
+        <v>1.03239804668426</v>
       </c>
       <c r="J10">
-        <v>1.011584108514154</v>
+        <v>1.033878618595449</v>
       </c>
       <c r="K10">
-        <v>1.02240548139662</v>
+        <v>1.039850154287971</v>
       </c>
       <c r="L10">
-        <v>1.018196574883406</v>
+        <v>1.048642875162815</v>
       </c>
       <c r="M10">
-        <v>1.024449939871005</v>
+        <v>1.052904448554767</v>
       </c>
       <c r="N10">
-        <v>1.013020673978563</v>
+        <v>1.03534684482139</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9794051448268033</v>
+        <v>1.026866616075928</v>
       </c>
       <c r="D11">
-        <v>1.005816576715323</v>
+        <v>1.035936582366411</v>
       </c>
       <c r="E11">
-        <v>1.000980354043306</v>
+        <v>1.044613672618995</v>
       </c>
       <c r="F11">
-        <v>1.007338621117804</v>
+        <v>1.048899739755492</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038794180130129</v>
+        <v>1.03230648827043</v>
       </c>
       <c r="J11">
-        <v>1.009660521298509</v>
+        <v>1.033493968113815</v>
       </c>
       <c r="K11">
-        <v>1.020629628280656</v>
+        <v>1.039503921037398</v>
       </c>
       <c r="L11">
-        <v>1.015883805974367</v>
+        <v>1.048149134855414</v>
       </c>
       <c r="M11">
-        <v>1.022123456213925</v>
+        <v>1.052419671472246</v>
       </c>
       <c r="N11">
-        <v>1.011094355048433</v>
+        <v>1.034961648091952</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9781801951282403</v>
+        <v>1.026636103234618</v>
       </c>
       <c r="D12">
-        <v>1.004928636884563</v>
+        <v>1.035762273880554</v>
       </c>
       <c r="E12">
-        <v>0.9998865808393852</v>
+        <v>1.044384998248645</v>
       </c>
       <c r="F12">
-        <v>1.006241398983106</v>
+        <v>1.048674569309512</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038523192843334</v>
+        <v>1.032272247258678</v>
       </c>
       <c r="J12">
-        <v>1.008937601923095</v>
+        <v>1.033351073249502</v>
       </c>
       <c r="K12">
-        <v>1.019962017255588</v>
+        <v>1.039375245039126</v>
       </c>
       <c r="L12">
-        <v>1.015015954103931</v>
+        <v>1.047965853396208</v>
       </c>
       <c r="M12">
-        <v>1.021249992622872</v>
+        <v>1.052239665104109</v>
       </c>
       <c r="N12">
-        <v>1.010370409044586</v>
+        <v>1.034818550300541</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9784435935544893</v>
+        <v>1.026685544767932</v>
       </c>
       <c r="D13">
-        <v>1.005119524697124</v>
+        <v>1.035799661073651</v>
       </c>
       <c r="E13">
-        <v>1.000121672663145</v>
+        <v>1.044434039144975</v>
       </c>
       <c r="F13">
-        <v>1.006477253152076</v>
+        <v>1.048722861026345</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038581539995984</v>
+        <v>1.032279602568138</v>
       </c>
       <c r="J13">
-        <v>1.009093057780673</v>
+        <v>1.033381725506546</v>
       </c>
       <c r="K13">
-        <v>1.020105588908413</v>
+        <v>1.039402849607552</v>
       </c>
       <c r="L13">
-        <v>1.015202515910041</v>
+        <v>1.048005162636716</v>
       </c>
       <c r="M13">
-        <v>1.021437781786298</v>
+        <v>1.052278274280856</v>
       </c>
       <c r="N13">
-        <v>1.010526085667313</v>
+        <v>1.034849246087306</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9793041786399751</v>
+        <v>1.026847559896439</v>
       </c>
       <c r="D14">
-        <v>1.005743368792122</v>
+        <v>1.035922172816725</v>
       </c>
       <c r="E14">
-        <v>1.000890155177011</v>
+        <v>1.044594765578362</v>
       </c>
       <c r="F14">
-        <v>1.007248147302656</v>
+        <v>1.048881123443202</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038771878936434</v>
+        <v>1.032303662630198</v>
       </c>
       <c r="J14">
-        <v>1.009600938508215</v>
+        <v>1.033482156752456</v>
       </c>
       <c r="K14">
-        <v>1.020574608181356</v>
+        <v>1.039493286051824</v>
       </c>
       <c r="L14">
-        <v>1.015812250828336</v>
+        <v>1.048133982385841</v>
       </c>
       <c r="M14">
-        <v>1.022051447831778</v>
+        <v>1.052404790829211</v>
       </c>
       <c r="N14">
-        <v>1.011034687643743</v>
+        <v>1.034949819957105</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9798325451248984</v>
+        <v>1.02694739520323</v>
       </c>
       <c r="D15">
-        <v>1.006126512402864</v>
+        <v>1.035997663841815</v>
       </c>
       <c r="E15">
-        <v>1.001362264713457</v>
+        <v>1.044693825254705</v>
       </c>
       <c r="F15">
-        <v>1.007721676956214</v>
+        <v>1.048978657858558</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03888851312428</v>
+        <v>1.03231845608376</v>
       </c>
       <c r="J15">
-        <v>1.009912733763831</v>
+        <v>1.03354403332923</v>
       </c>
       <c r="K15">
-        <v>1.020862518448741</v>
+        <v>1.039548997745933</v>
       </c>
       <c r="L15">
-        <v>1.016186751348588</v>
+        <v>1.048213367850389</v>
       </c>
       <c r="M15">
-        <v>1.02242830149752</v>
+        <v>1.052482750028111</v>
       </c>
       <c r="N15">
-        <v>1.011346925684386</v>
+        <v>1.035011784405715</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9828799055309686</v>
+        <v>1.027528669024982</v>
       </c>
       <c r="D16">
-        <v>1.008338158428068</v>
+        <v>1.036437167583048</v>
       </c>
       <c r="E16">
-        <v>1.004089511516193</v>
+        <v>1.04527086479582</v>
       </c>
       <c r="F16">
-        <v>1.010456194790569</v>
+        <v>1.049546711304693</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039557720726591</v>
+        <v>1.032404090530786</v>
       </c>
       <c r="J16">
-        <v>1.011710612524474</v>
+        <v>1.033904143925913</v>
       </c>
       <c r="K16">
-        <v>1.022522238979405</v>
+        <v>1.039873122835155</v>
       </c>
       <c r="L16">
-        <v>1.018348857155969</v>
+        <v>1.048675659233892</v>
       </c>
       <c r="M16">
-        <v>1.024603060476295</v>
+        <v>1.052936630156573</v>
       </c>
       <c r="N16">
-        <v>1.013147357639088</v>
+        <v>1.035372406400751</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9847674070611959</v>
+        <v>1.027893452568064</v>
       </c>
       <c r="D17">
-        <v>1.009709589621565</v>
+        <v>1.036712955291849</v>
       </c>
       <c r="E17">
-        <v>1.005782495336103</v>
+        <v>1.045633238686051</v>
       </c>
       <c r="F17">
-        <v>1.012152873536088</v>
+        <v>1.049903352943372</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039969118143432</v>
+        <v>1.032457392500487</v>
       </c>
       <c r="J17">
-        <v>1.01282380404063</v>
+        <v>1.034129997676656</v>
       </c>
       <c r="K17">
-        <v>1.023549489744503</v>
+        <v>1.040076312828025</v>
       </c>
       <c r="L17">
-        <v>1.019689890455282</v>
+        <v>1.048965847191538</v>
       </c>
       <c r="M17">
-        <v>1.025951122152879</v>
+        <v>1.053221445246759</v>
       </c>
       <c r="N17">
-        <v>1.014262130014882</v>
+        <v>1.035598580889726</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9858599263453847</v>
+        <v>1.028106284086042</v>
       </c>
       <c r="D18">
-        <v>1.010503933121963</v>
+        <v>1.036873852661365</v>
       </c>
       <c r="E18">
-        <v>1.006763753730335</v>
+        <v>1.045844753331627</v>
       </c>
       <c r="F18">
-        <v>1.01313597885307</v>
+        <v>1.050111489633468</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040206107330358</v>
+        <v>1.032488333172983</v>
       </c>
       <c r="J18">
-        <v>1.013467981397252</v>
+        <v>1.034261721738688</v>
       </c>
       <c r="K18">
-        <v>1.024143785173278</v>
+        <v>1.0401947846757</v>
       </c>
       <c r="L18">
-        <v>1.020466748462412</v>
+        <v>1.049135182317132</v>
       </c>
       <c r="M18">
-        <v>1.026731756107035</v>
+        <v>1.053387611606394</v>
       </c>
       <c r="N18">
-        <v>1.014907222177239</v>
+        <v>1.035730492015034</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9862310388076957</v>
+        <v>1.028178864187472</v>
       </c>
       <c r="D19">
-        <v>1.01077384791756</v>
+        <v>1.036928720408825</v>
       </c>
       <c r="E19">
-        <v>1.007097295912466</v>
+        <v>1.045916899432715</v>
       </c>
       <c r="F19">
-        <v>1.013470098850018</v>
+        <v>1.050182478098218</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040286414809278</v>
+        <v>1.032498857774617</v>
       </c>
       <c r="J19">
-        <v>1.013686770644168</v>
+        <v>1.034306634071084</v>
       </c>
       <c r="K19">
-        <v>1.02434560634743</v>
+        <v>1.040235172774189</v>
       </c>
       <c r="L19">
-        <v>1.02073074281881</v>
+        <v>1.049192933630692</v>
       </c>
       <c r="M19">
-        <v>1.026996983431002</v>
+        <v>1.053444276538233</v>
       </c>
       <c r="N19">
-        <v>1.01512632212998</v>
+        <v>1.035775468128095</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9845657728872311</v>
+        <v>1.027854308589979</v>
       </c>
       <c r="D20">
-        <v>1.009563029063901</v>
+        <v>1.036683362243053</v>
       </c>
       <c r="E20">
-        <v>1.005601502280579</v>
+        <v>1.045594344069136</v>
       </c>
       <c r="F20">
-        <v>1.011971516019138</v>
+        <v>1.049865076903861</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03992528754981</v>
+        <v>1.032451689159529</v>
       </c>
       <c r="J20">
-        <v>1.012704902286141</v>
+        <v>1.034105767003816</v>
       </c>
       <c r="K20">
-        <v>1.023439782871203</v>
+        <v>1.040054517156721</v>
       </c>
       <c r="L20">
-        <v>1.019546565975472</v>
+        <v>1.048934705168882</v>
       </c>
       <c r="M20">
-        <v>1.025807077149584</v>
+        <v>1.053190883287765</v>
       </c>
       <c r="N20">
-        <v>1.014143059406263</v>
+        <v>1.035574315806551</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9790511483932579</v>
+        <v>1.026799847886121</v>
       </c>
       <c r="D21">
-        <v>1.005559918725714</v>
+        <v>1.035886094597486</v>
       </c>
       <c r="E21">
-        <v>1.000664144264115</v>
+        <v>1.044547429227344</v>
       </c>
       <c r="F21">
-        <v>1.007021439948212</v>
+        <v>1.048834514162494</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038715962457004</v>
+        <v>1.032296583945493</v>
       </c>
       <c r="J21">
-        <v>1.009451615769108</v>
+        <v>1.033452582757858</v>
       </c>
       <c r="K21">
-        <v>1.0204367168281</v>
+        <v>1.039466656684342</v>
       </c>
       <c r="L21">
-        <v>1.015632945143919</v>
+        <v>1.048096044977214</v>
       </c>
       <c r="M21">
-        <v>1.021870998916315</v>
+        <v>1.052367533153101</v>
       </c>
       <c r="N21">
-        <v>1.010885152849218</v>
+        <v>1.034920203964043</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9755028945942463</v>
+        <v>1.026137408910127</v>
       </c>
       <c r="D22">
-        <v>1.00298975351665</v>
+        <v>1.035385146908372</v>
       </c>
       <c r="E22">
-        <v>0.9975000889752341</v>
+        <v>1.043890536617709</v>
       </c>
       <c r="F22">
-        <v>1.003846526359872</v>
+        <v>1.048187592781626</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037927792956224</v>
+        <v>1.032197720316111</v>
       </c>
       <c r="J22">
-        <v>1.007357257837889</v>
+        <v>1.033041793067042</v>
       </c>
       <c r="K22">
-        <v>1.018502214566916</v>
+        <v>1.039096643598522</v>
       </c>
       <c r="L22">
-        <v>1.01312123279767</v>
+        <v>1.047569415908119</v>
       </c>
       <c r="M22">
-        <v>1.019342166008466</v>
+        <v>1.051850216268309</v>
       </c>
       <c r="N22">
-        <v>1.008787820689511</v>
+        <v>1.034508830904747</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.977391823636087</v>
+        <v>1.026488528611199</v>
       </c>
       <c r="D23">
-        <v>1.004357440354456</v>
+        <v>1.035650677348307</v>
       </c>
       <c r="E23">
-        <v>0.9991832593705131</v>
+        <v>1.044238639899443</v>
       </c>
       <c r="F23">
-        <v>1.005535728576665</v>
+        <v>1.048530439500072</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03834830612783</v>
+        <v>1.03225025690141</v>
       </c>
       <c r="J23">
-        <v>1.008472286111474</v>
+        <v>1.033259570252313</v>
       </c>
       <c r="K23">
-        <v>1.019532244233409</v>
+        <v>1.039292832266922</v>
       </c>
       <c r="L23">
-        <v>1.014457726341832</v>
+        <v>1.04784852802624</v>
       </c>
       <c r="M23">
-        <v>1.020688024294196</v>
+        <v>1.052124421560383</v>
       </c>
       <c r="N23">
-        <v>1.00990443243114</v>
+        <v>1.0347269173586</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9846569086847137</v>
+        <v>1.027871995885117</v>
       </c>
       <c r="D24">
-        <v>1.009629270713389</v>
+        <v>1.036696733959802</v>
       </c>
       <c r="E24">
-        <v>1.005683304468178</v>
+        <v>1.045611918414916</v>
       </c>
       <c r="F24">
-        <v>1.012053483842877</v>
+        <v>1.049882371847521</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039945101881753</v>
+        <v>1.032454266715684</v>
       </c>
       <c r="J24">
-        <v>1.012758644691356</v>
+        <v>1.034116715840926</v>
       </c>
       <c r="K24">
-        <v>1.02348936974897</v>
+        <v>1.040064365822899</v>
       </c>
       <c r="L24">
-        <v>1.019611344623018</v>
+        <v>1.048948776681764</v>
       </c>
       <c r="M24">
-        <v>1.025872182369731</v>
+        <v>1.053204692802568</v>
       </c>
       <c r="N24">
-        <v>1.014196878131858</v>
+        <v>1.035585280192265</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9927591800414467</v>
+        <v>1.02947976115684</v>
       </c>
       <c r="D25">
-        <v>1.015528947887491</v>
+        <v>1.03791199455779</v>
       </c>
       <c r="E25">
-        <v>1.0129834144185</v>
+        <v>1.047211335458557</v>
       </c>
       <c r="F25">
-        <v>1.019362086455666</v>
+        <v>1.051455667116902</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041681960931229</v>
+        <v>1.032685143597456</v>
       </c>
       <c r="J25">
-        <v>1.01753270822313</v>
+        <v>1.035110887359405</v>
       </c>
       <c r="K25">
-        <v>1.027890886607635</v>
+        <v>1.040957901202036</v>
       </c>
       <c r="L25">
-        <v>1.025383468338356</v>
+        <v>1.050228428779765</v>
       </c>
       <c r="M25">
-        <v>1.031667086548446</v>
+        <v>1.054459794483524</v>
       </c>
       <c r="N25">
-        <v>1.01897772138144</v>
+        <v>1.036580863548334</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_231/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_231/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030763952664216</v>
+        <v>0.9989808081897655</v>
       </c>
       <c r="D2">
-        <v>1.038882333672708</v>
+        <v>1.020072648200907</v>
       </c>
       <c r="E2">
-        <v>1.048491652779333</v>
+        <v>1.018627522699263</v>
       </c>
       <c r="F2">
-        <v>1.052714059346016</v>
+        <v>1.025003631382682</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032864540483332</v>
+        <v>1.042978614705734</v>
       </c>
       <c r="J2">
-        <v>1.035903398080549</v>
+        <v>1.021192045900351</v>
       </c>
       <c r="K2">
-        <v>1.041669102157293</v>
+        <v>1.031259246461669</v>
       </c>
       <c r="L2">
-        <v>1.051251348547466</v>
+        <v>1.029833305753037</v>
       </c>
       <c r="M2">
-        <v>1.0554620285946</v>
+        <v>1.036125278577804</v>
       </c>
       <c r="N2">
-        <v>1.037374499725604</v>
+        <v>1.022642255737893</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031697441858328</v>
+        <v>1.003369538656206</v>
       </c>
       <c r="D3">
-        <v>1.039587469067481</v>
+        <v>1.023284214606881</v>
       </c>
       <c r="E3">
-        <v>1.049423934783364</v>
+        <v>1.022630055365302</v>
       </c>
       <c r="F3">
-        <v>1.053629788691581</v>
+        <v>1.028999053933646</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032992033668823</v>
+        <v>1.043870930076042</v>
       </c>
       <c r="J3">
-        <v>1.036478560065953</v>
+        <v>1.02376876623233</v>
       </c>
       <c r="K3">
-        <v>1.04218461924586</v>
+        <v>1.033627591683825</v>
       </c>
       <c r="L3">
-        <v>1.051995375568136</v>
+        <v>1.032981342332172</v>
       </c>
       <c r="M3">
-        <v>1.056190394774439</v>
+        <v>1.039273859270987</v>
       </c>
       <c r="N3">
-        <v>1.037950478507</v>
+        <v>1.025222635308298</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032301953380738</v>
+        <v>1.00615308902975</v>
       </c>
       <c r="D4">
-        <v>1.040043999985463</v>
+        <v>1.025323724628902</v>
       </c>
       <c r="E4">
-        <v>1.050028405245716</v>
+        <v>1.025178147690037</v>
       </c>
       <c r="F4">
-        <v>1.05422325528672</v>
+        <v>1.031540165062557</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033073247534495</v>
+        <v>1.044426248836115</v>
       </c>
       <c r="J4">
-        <v>1.036850597200812</v>
+        <v>1.025400697122431</v>
       </c>
       <c r="K4">
-        <v>1.042517780656738</v>
+        <v>1.035125827679892</v>
       </c>
       <c r="L4">
-        <v>1.05247740363835</v>
+        <v>1.034981902589646</v>
       </c>
       <c r="M4">
-        <v>1.056661992261293</v>
+        <v>1.04127226626774</v>
       </c>
       <c r="N4">
-        <v>1.038323043977263</v>
+        <v>1.026856883727448</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032556204255269</v>
+        <v>1.007310289964274</v>
       </c>
       <c r="D5">
-        <v>1.040235986605266</v>
+        <v>1.026172166848194</v>
       </c>
       <c r="E5">
-        <v>1.050282815602648</v>
+        <v>1.026239694744588</v>
       </c>
       <c r="F5">
-        <v>1.054472969390784</v>
+        <v>1.032598213851449</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033107082185269</v>
+        <v>1.044654516711002</v>
       </c>
       <c r="J5">
-        <v>1.037006969194764</v>
+        <v>1.02607853848547</v>
       </c>
       <c r="K5">
-        <v>1.042657741814616</v>
+        <v>1.035747707494703</v>
       </c>
       <c r="L5">
-        <v>1.052680188892259</v>
+        <v>1.035814489971332</v>
       </c>
       <c r="M5">
-        <v>1.05686032136182</v>
+        <v>1.042103355400793</v>
       </c>
       <c r="N5">
-        <v>1.038479638037382</v>
+        <v>1.027535687702973</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032598900763562</v>
+        <v>1.00750383960521</v>
       </c>
       <c r="D6">
-        <v>1.040268225538178</v>
+        <v>1.026314105784686</v>
       </c>
       <c r="E6">
-        <v>1.050325549240513</v>
+        <v>1.026417375645669</v>
       </c>
       <c r="F6">
-        <v>1.0545149103879</v>
+        <v>1.032775274521748</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033112745114364</v>
+        <v>1.044692542337279</v>
       </c>
       <c r="J6">
-        <v>1.037033222809866</v>
+        <v>1.026191875847789</v>
       </c>
       <c r="K6">
-        <v>1.042681236018247</v>
+        <v>1.035851662157627</v>
       </c>
       <c r="L6">
-        <v>1.052714245639684</v>
+        <v>1.035953797369557</v>
       </c>
       <c r="M6">
-        <v>1.056893625728846</v>
+        <v>1.042242376648872</v>
       </c>
       <c r="N6">
-        <v>1.038505928935629</v>
+        <v>1.027649186017346</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032305350245844</v>
+        <v>1.006168602103205</v>
       </c>
       <c r="D7">
-        <v>1.040046565082188</v>
+        <v>1.025335096442912</v>
       </c>
       <c r="E7">
-        <v>1.050031803547899</v>
+        <v>1.025192369694846</v>
       </c>
       <c r="F7">
-        <v>1.054226591113334</v>
+        <v>1.031554342528725</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033073700844347</v>
+        <v>1.044429319225226</v>
       </c>
       <c r="J7">
-        <v>1.036852686779712</v>
+        <v>1.025409786460419</v>
       </c>
       <c r="K7">
-        <v>1.04251965121852</v>
+        <v>1.03513416833574</v>
       </c>
       <c r="L7">
-        <v>1.052480112713762</v>
+        <v>1.034993060504917</v>
       </c>
       <c r="M7">
-        <v>1.056664642072934</v>
+        <v>1.041283406484843</v>
       </c>
       <c r="N7">
-        <v>1.038325136523605</v>
+        <v>1.026865985973339</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031079329350076</v>
+        <v>1.000475933548902</v>
       </c>
       <c r="D8">
-        <v>1.039120582501931</v>
+        <v>1.021166168781226</v>
       </c>
       <c r="E8">
-        <v>1.048806467994306</v>
+        <v>1.019989064414376</v>
       </c>
       <c r="F8">
-        <v>1.053023341197625</v>
+        <v>1.026363267189774</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032907892664203</v>
+        <v>1.043284805255835</v>
       </c>
       <c r="J8">
-        <v>1.036097803301305</v>
+        <v>1.022070338988577</v>
       </c>
       <c r="K8">
-        <v>1.041843408333976</v>
+        <v>1.032066864955412</v>
       </c>
       <c r="L8">
-        <v>1.051502672446171</v>
+        <v>1.03090491100302</v>
       </c>
       <c r="M8">
-        <v>1.055708121304672</v>
+        <v>1.037197590698111</v>
       </c>
       <c r="N8">
-        <v>1.037569181024072</v>
+        <v>1.023521796103047</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028922659325426</v>
+        <v>0.989991911401009</v>
       </c>
       <c r="D9">
-        <v>1.037490949402998</v>
+        <v>1.013511653696394</v>
       </c>
       <c r="E9">
-        <v>1.04665669278526</v>
+        <v>1.010483895729633</v>
       </c>
       <c r="F9">
-        <v>1.050910239808253</v>
+        <v>1.016861095325849</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032605918108548</v>
+        <v>1.041094472946303</v>
       </c>
       <c r="J9">
-        <v>1.034766643112852</v>
+        <v>1.015903099360292</v>
       </c>
       <c r="K9">
-        <v>1.040648671170614</v>
+        <v>1.026389252476129</v>
       </c>
       <c r="L9">
-        <v>1.049784894501414</v>
+        <v>1.023409138584103</v>
       </c>
       <c r="M9">
-        <v>1.054024933501259</v>
+        <v>1.029686410515786</v>
       </c>
       <c r="N9">
-        <v>1.036236130435466</v>
+        <v>1.017345798287097</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027487453040998</v>
+        <v>0.9826654428126388</v>
       </c>
       <c r="D10">
-        <v>1.036406005697169</v>
+        <v>1.008182407809395</v>
       </c>
       <c r="E10">
-        <v>1.04522993313064</v>
+        <v>1.003897333248356</v>
       </c>
       <c r="F10">
-        <v>1.049506422781145</v>
+        <v>1.010263556978213</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03239804668426</v>
+        <v>1.039510823331567</v>
       </c>
       <c r="J10">
-        <v>1.033878618595449</v>
+        <v>1.011584108514153</v>
       </c>
       <c r="K10">
-        <v>1.039850154287971</v>
+        <v>1.022405481396619</v>
       </c>
       <c r="L10">
-        <v>1.048642875162815</v>
+        <v>1.018196574883405</v>
       </c>
       <c r="M10">
-        <v>1.052904448554767</v>
+        <v>1.024449939871004</v>
       </c>
       <c r="N10">
-        <v>1.03534684482139</v>
+        <v>1.013020673978562</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026866616075928</v>
+        <v>0.9794051448268037</v>
       </c>
       <c r="D11">
-        <v>1.035936582366411</v>
+        <v>1.005816576715324</v>
       </c>
       <c r="E11">
-        <v>1.044613672618995</v>
+        <v>1.000980354043306</v>
       </c>
       <c r="F11">
-        <v>1.048899739755492</v>
+        <v>1.007338621117804</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03230648827043</v>
+        <v>1.038794180130129</v>
       </c>
       <c r="J11">
-        <v>1.033493968113815</v>
+        <v>1.009660521298509</v>
       </c>
       <c r="K11">
-        <v>1.039503921037398</v>
+        <v>1.020629628280657</v>
       </c>
       <c r="L11">
-        <v>1.048149134855414</v>
+        <v>1.015883805974368</v>
       </c>
       <c r="M11">
-        <v>1.052419671472246</v>
+        <v>1.022123456213925</v>
       </c>
       <c r="N11">
-        <v>1.034961648091952</v>
+        <v>1.011094355048434</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026636103234618</v>
+        <v>0.9781801951282397</v>
       </c>
       <c r="D12">
-        <v>1.035762273880554</v>
+        <v>1.004928636884563</v>
       </c>
       <c r="E12">
-        <v>1.044384998248645</v>
+        <v>0.9998865808393852</v>
       </c>
       <c r="F12">
-        <v>1.048674569309512</v>
+        <v>1.006241398983106</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032272247258678</v>
+        <v>1.038523192843334</v>
       </c>
       <c r="J12">
-        <v>1.033351073249502</v>
+        <v>1.008937601923094</v>
       </c>
       <c r="K12">
-        <v>1.039375245039126</v>
+        <v>1.019962017255587</v>
       </c>
       <c r="L12">
-        <v>1.047965853396208</v>
+        <v>1.015015954103931</v>
       </c>
       <c r="M12">
-        <v>1.052239665104109</v>
+        <v>1.021249992622872</v>
       </c>
       <c r="N12">
-        <v>1.034818550300541</v>
+        <v>1.010370409044585</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026685544767932</v>
+        <v>0.9784435935544898</v>
       </c>
       <c r="D13">
-        <v>1.035799661073651</v>
+        <v>1.005119524697125</v>
       </c>
       <c r="E13">
-        <v>1.044434039144975</v>
+        <v>1.000121672663145</v>
       </c>
       <c r="F13">
-        <v>1.048722861026345</v>
+        <v>1.006477253152076</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032279602568138</v>
+        <v>1.038581539995984</v>
       </c>
       <c r="J13">
-        <v>1.033381725506546</v>
+        <v>1.009093057780673</v>
       </c>
       <c r="K13">
-        <v>1.039402849607552</v>
+        <v>1.020105588908414</v>
       </c>
       <c r="L13">
-        <v>1.048005162636716</v>
+        <v>1.015202515910041</v>
       </c>
       <c r="M13">
-        <v>1.052278274280856</v>
+        <v>1.021437781786299</v>
       </c>
       <c r="N13">
-        <v>1.034849246087306</v>
+        <v>1.010526085667313</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026847559896439</v>
+        <v>0.9793041786399745</v>
       </c>
       <c r="D14">
-        <v>1.035922172816725</v>
+        <v>1.005743368792121</v>
       </c>
       <c r="E14">
-        <v>1.044594765578362</v>
+        <v>1.00089015517701</v>
       </c>
       <c r="F14">
-        <v>1.048881123443202</v>
+        <v>1.007248147302655</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032303662630198</v>
+        <v>1.038771878936433</v>
       </c>
       <c r="J14">
-        <v>1.033482156752456</v>
+        <v>1.009600938508215</v>
       </c>
       <c r="K14">
-        <v>1.039493286051824</v>
+        <v>1.020574608181356</v>
       </c>
       <c r="L14">
-        <v>1.048133982385841</v>
+        <v>1.015812250828336</v>
       </c>
       <c r="M14">
-        <v>1.052404790829211</v>
+        <v>1.022051447831777</v>
       </c>
       <c r="N14">
-        <v>1.034949819957105</v>
+        <v>1.011034687643743</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02694739520323</v>
+        <v>0.9798325451248998</v>
       </c>
       <c r="D15">
-        <v>1.035997663841815</v>
+        <v>1.006126512402864</v>
       </c>
       <c r="E15">
-        <v>1.044693825254705</v>
+        <v>1.001362264713458</v>
       </c>
       <c r="F15">
-        <v>1.048978657858558</v>
+        <v>1.007721676956215</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03231845608376</v>
+        <v>1.03888851312428</v>
       </c>
       <c r="J15">
-        <v>1.03354403332923</v>
+        <v>1.009912733763832</v>
       </c>
       <c r="K15">
-        <v>1.039548997745933</v>
+        <v>1.020862518448741</v>
       </c>
       <c r="L15">
-        <v>1.048213367850389</v>
+        <v>1.016186751348589</v>
       </c>
       <c r="M15">
-        <v>1.052482750028111</v>
+        <v>1.022428301497521</v>
       </c>
       <c r="N15">
-        <v>1.035011784405715</v>
+        <v>1.011346925684387</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027528669024982</v>
+        <v>0.9828799055309688</v>
       </c>
       <c r="D16">
-        <v>1.036437167583048</v>
+        <v>1.008338158428068</v>
       </c>
       <c r="E16">
-        <v>1.04527086479582</v>
+        <v>1.004089511516193</v>
       </c>
       <c r="F16">
-        <v>1.049546711304693</v>
+        <v>1.010456194790569</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032404090530786</v>
+        <v>1.039557720726591</v>
       </c>
       <c r="J16">
-        <v>1.033904143925913</v>
+        <v>1.011710612524474</v>
       </c>
       <c r="K16">
-        <v>1.039873122835155</v>
+        <v>1.022522238979406</v>
       </c>
       <c r="L16">
-        <v>1.048675659233892</v>
+        <v>1.01834885715597</v>
       </c>
       <c r="M16">
-        <v>1.052936630156573</v>
+        <v>1.024603060476295</v>
       </c>
       <c r="N16">
-        <v>1.035372406400751</v>
+        <v>1.013147357639088</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027893452568064</v>
+        <v>0.9847674070611957</v>
       </c>
       <c r="D17">
-        <v>1.036712955291849</v>
+        <v>1.009709589621565</v>
       </c>
       <c r="E17">
-        <v>1.045633238686051</v>
+        <v>1.005782495336103</v>
       </c>
       <c r="F17">
-        <v>1.049903352943372</v>
+        <v>1.012152873536088</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032457392500487</v>
+        <v>1.039969118143432</v>
       </c>
       <c r="J17">
-        <v>1.034129997676656</v>
+        <v>1.01282380404063</v>
       </c>
       <c r="K17">
-        <v>1.040076312828025</v>
+        <v>1.023549489744503</v>
       </c>
       <c r="L17">
-        <v>1.048965847191538</v>
+        <v>1.019689890455282</v>
       </c>
       <c r="M17">
-        <v>1.053221445246759</v>
+        <v>1.025951122152879</v>
       </c>
       <c r="N17">
-        <v>1.035598580889726</v>
+        <v>1.014262130014882</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028106284086042</v>
+        <v>0.9858599263453849</v>
       </c>
       <c r="D18">
-        <v>1.036873852661365</v>
+        <v>1.010503933121964</v>
       </c>
       <c r="E18">
-        <v>1.045844753331627</v>
+        <v>1.006763753730336</v>
       </c>
       <c r="F18">
-        <v>1.050111489633468</v>
+        <v>1.013135978853071</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032488333172983</v>
+        <v>1.040206107330359</v>
       </c>
       <c r="J18">
-        <v>1.034261721738688</v>
+        <v>1.013467981397253</v>
       </c>
       <c r="K18">
-        <v>1.0401947846757</v>
+        <v>1.024143785173278</v>
       </c>
       <c r="L18">
-        <v>1.049135182317132</v>
+        <v>1.020466748462413</v>
       </c>
       <c r="M18">
-        <v>1.053387611606394</v>
+        <v>1.026731756107036</v>
       </c>
       <c r="N18">
-        <v>1.035730492015034</v>
+        <v>1.014907222177239</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028178864187472</v>
+        <v>0.9862310388076952</v>
       </c>
       <c r="D19">
-        <v>1.036928720408825</v>
+        <v>1.01077384791756</v>
       </c>
       <c r="E19">
-        <v>1.045916899432715</v>
+        <v>1.007097295912466</v>
       </c>
       <c r="F19">
-        <v>1.050182478098218</v>
+        <v>1.013470098850018</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032498857774617</v>
+        <v>1.040286414809278</v>
       </c>
       <c r="J19">
-        <v>1.034306634071084</v>
+        <v>1.013686770644167</v>
       </c>
       <c r="K19">
-        <v>1.040235172774189</v>
+        <v>1.024345606347429</v>
       </c>
       <c r="L19">
-        <v>1.049192933630692</v>
+        <v>1.02073074281881</v>
       </c>
       <c r="M19">
-        <v>1.053444276538233</v>
+        <v>1.026996983431002</v>
       </c>
       <c r="N19">
-        <v>1.035775468128095</v>
+        <v>1.01512632212998</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027854308589979</v>
+        <v>0.9845657728872315</v>
       </c>
       <c r="D20">
-        <v>1.036683362243053</v>
+        <v>1.009563029063901</v>
       </c>
       <c r="E20">
-        <v>1.045594344069136</v>
+        <v>1.00560150228058</v>
       </c>
       <c r="F20">
-        <v>1.049865076903861</v>
+        <v>1.011971516019138</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032451689159529</v>
+        <v>1.03992528754981</v>
       </c>
       <c r="J20">
-        <v>1.034105767003816</v>
+        <v>1.012704902286141</v>
       </c>
       <c r="K20">
-        <v>1.040054517156721</v>
+        <v>1.023439782871203</v>
       </c>
       <c r="L20">
-        <v>1.048934705168882</v>
+        <v>1.019546565975473</v>
       </c>
       <c r="M20">
-        <v>1.053190883287765</v>
+        <v>1.025807077149584</v>
       </c>
       <c r="N20">
-        <v>1.035574315806551</v>
+        <v>1.014143059406263</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026799847886121</v>
+        <v>0.9790511483932569</v>
       </c>
       <c r="D21">
-        <v>1.035886094597486</v>
+        <v>1.005559918725713</v>
       </c>
       <c r="E21">
-        <v>1.044547429227344</v>
+        <v>1.000664144264114</v>
       </c>
       <c r="F21">
-        <v>1.048834514162494</v>
+        <v>1.007021439948211</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032296583945493</v>
+        <v>1.038715962457004</v>
       </c>
       <c r="J21">
-        <v>1.033452582757858</v>
+        <v>1.009451615769106</v>
       </c>
       <c r="K21">
-        <v>1.039466656684342</v>
+        <v>1.020436716828099</v>
       </c>
       <c r="L21">
-        <v>1.048096044977214</v>
+        <v>1.015632945143919</v>
       </c>
       <c r="M21">
-        <v>1.052367533153101</v>
+        <v>1.021870998916314</v>
       </c>
       <c r="N21">
-        <v>1.034920203964043</v>
+        <v>1.010885152849217</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026137408910127</v>
+        <v>0.9755028945942463</v>
       </c>
       <c r="D22">
-        <v>1.035385146908372</v>
+        <v>1.00298975351665</v>
       </c>
       <c r="E22">
-        <v>1.043890536617709</v>
+        <v>0.997500088975234</v>
       </c>
       <c r="F22">
-        <v>1.048187592781626</v>
+        <v>1.003846526359871</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032197720316111</v>
+        <v>1.037927792956224</v>
       </c>
       <c r="J22">
-        <v>1.033041793067042</v>
+        <v>1.007357257837889</v>
       </c>
       <c r="K22">
-        <v>1.039096643598522</v>
+        <v>1.018502214566916</v>
       </c>
       <c r="L22">
-        <v>1.047569415908119</v>
+        <v>1.01312123279767</v>
       </c>
       <c r="M22">
-        <v>1.051850216268309</v>
+        <v>1.019342166008465</v>
       </c>
       <c r="N22">
-        <v>1.034508830904747</v>
+        <v>1.008787820689511</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026488528611199</v>
+        <v>0.9773918236360877</v>
       </c>
       <c r="D23">
-        <v>1.035650677348307</v>
+        <v>1.004357440354457</v>
       </c>
       <c r="E23">
-        <v>1.044238639899443</v>
+        <v>0.999183259370514</v>
       </c>
       <c r="F23">
-        <v>1.048530439500072</v>
+        <v>1.005535728576666</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03225025690141</v>
+        <v>1.038348306127831</v>
       </c>
       <c r="J23">
-        <v>1.033259570252313</v>
+        <v>1.008472286111475</v>
       </c>
       <c r="K23">
-        <v>1.039292832266922</v>
+        <v>1.01953224423341</v>
       </c>
       <c r="L23">
-        <v>1.04784852802624</v>
+        <v>1.014457726341832</v>
       </c>
       <c r="M23">
-        <v>1.052124421560383</v>
+        <v>1.020688024294198</v>
       </c>
       <c r="N23">
-        <v>1.0347269173586</v>
+        <v>1.009904432431141</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027871995885117</v>
+        <v>0.9846569086847136</v>
       </c>
       <c r="D24">
-        <v>1.036696733959802</v>
+        <v>1.009629270713389</v>
       </c>
       <c r="E24">
-        <v>1.045611918414916</v>
+        <v>1.005683304468178</v>
       </c>
       <c r="F24">
-        <v>1.049882371847521</v>
+        <v>1.012053483842876</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032454266715684</v>
+        <v>1.039945101881753</v>
       </c>
       <c r="J24">
-        <v>1.034116715840926</v>
+        <v>1.012758644691356</v>
       </c>
       <c r="K24">
-        <v>1.040064365822899</v>
+        <v>1.02348936974897</v>
       </c>
       <c r="L24">
-        <v>1.048948776681764</v>
+        <v>1.019611344623018</v>
       </c>
       <c r="M24">
-        <v>1.053204692802568</v>
+        <v>1.025872182369731</v>
       </c>
       <c r="N24">
-        <v>1.035585280192265</v>
+        <v>1.014196878131858</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02947976115684</v>
+        <v>0.9927591800414468</v>
       </c>
       <c r="D25">
-        <v>1.03791199455779</v>
+        <v>1.015528947887491</v>
       </c>
       <c r="E25">
-        <v>1.047211335458557</v>
+        <v>1.0129834144185</v>
       </c>
       <c r="F25">
-        <v>1.051455667116902</v>
+        <v>1.019362086455665</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032685143597456</v>
+        <v>1.041681960931229</v>
       </c>
       <c r="J25">
-        <v>1.035110887359405</v>
+        <v>1.01753270822313</v>
       </c>
       <c r="K25">
-        <v>1.040957901202036</v>
+        <v>1.027890886607635</v>
       </c>
       <c r="L25">
-        <v>1.050228428779765</v>
+        <v>1.025383468338356</v>
       </c>
       <c r="M25">
-        <v>1.054459794483524</v>
+        <v>1.031667086548446</v>
       </c>
       <c r="N25">
-        <v>1.036580863548334</v>
+        <v>1.01897772138144</v>
       </c>
     </row>
   </sheetData>
